--- a/其他可以借鉴的文章.xlsx
+++ b/其他可以借鉴的文章.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>论文标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>还有对国内研究的总结也是可以抄的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropout: A Simple Way to Prevent Neural Networks from
+Overfitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来防止过拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -422,6 +431,14 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
